--- a/data/public/parameters.xlsx
+++ b/data/public/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\private\data\public_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2E56C-A9D3-4BE1-95E2-BE1343E4DDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA389D6A-93EF-4E21-9D4E-0F37F4F9EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>Parameter</t>
   </si>
@@ -69,66 +69,15 @@
     <t>hours</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>µm</t>
-  </si>
-  <si>
-    <t>N_size</t>
-  </si>
-  <si>
-    <t>order of the size distribution (2=BINOMIAL, 3=trinomial)</t>
-  </si>
-  <si>
-    <t>Nd</t>
-  </si>
-  <si>
-    <t>6650;147;1990</t>
-  </si>
-  <si>
-    <t>RURAL - Number of particles for each log-normal mode</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>0.015;0.054;0.084</t>
-  </si>
-  <si>
-    <t>RURAL - mean of each log-normal mode - log10 to be applied</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>dust material density</t>
-  </si>
-  <si>
-    <t>hamaker_dust</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
     <t>Hamaker constant of quartz (dust)</t>
   </si>
   <si>
-    <t>poisson_dust</t>
-  </si>
-  <si>
     <t>Poisson ration of quartz (dust)</t>
   </si>
   <si>
-    <t>youngs_modulus_dust</t>
-  </si>
-  <si>
     <t>N/m2</t>
   </si>
   <si>
@@ -264,18 +213,6 @@
     <t>tilt angle for the stowing of the heliostats at night (must be close to 90)</t>
   </si>
   <si>
-    <t>RURAL - std of each log-normal mode  - log10 to be applied</t>
-  </si>
-  <si>
-    <t>1.6788;3.6058;1.8450</t>
-  </si>
-  <si>
-    <t>minimum, maximum, number of bins (log spacing)</t>
-  </si>
-  <si>
-    <t>0.0001;10000;1000</t>
-  </si>
-  <si>
     <t>receiver_height</t>
   </si>
   <si>
@@ -316,9 +253,6 @@
   </si>
   <si>
     <t>CONSTANTS</t>
-  </si>
-  <si>
-    <t>DUST</t>
   </si>
   <si>
     <t>SITE</t>
@@ -1242,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1206,7 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -1298,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,552 +1260,429 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="6">
+        <v>195</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15.8</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5">
-        <v>8.5000000000000005E-20</v>
+        <v>64</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3">
-        <v>0.17</v>
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5">
-        <v>72400000000</v>
+        <v>86</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1000</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3">
-        <v>90</v>
+        <v>11.3</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="6">
-        <v>195</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="3">
-        <v>30.5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="3">
-        <v>15.8</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.5000000000000003E-20</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
+        <v>0.27</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.35</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>80100000000</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="3">
-        <v>210</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>109</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3">
-        <v>1000</v>
+        <v>1.2047000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.8170000000000001E-5</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6.5E-8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>11.3</v>
+        <v>1367.7</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
         <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.95</v>
+        <v>37</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.3809999999999999E-23</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5">
-        <v>6.5000000000000003E-20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.4</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
-        <v>0.27</v>
+        <v>1000</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5">
-        <v>80100000000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3">
-        <v>1.2047000000000001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3">
-        <v>1.8170000000000001E-5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3">
-        <v>6.5E-8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1367.7</v>
+        <v>56</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1.3809999999999999E-23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
         <v>57</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="3">
-        <v>400</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="5">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/public/parameters.xlsx
+++ b/data/public/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\private\data\public_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\HelioSoil\data\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA389D6A-93EF-4E21-9D4E-0F37F4F9EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFB054-D678-43B7-BE34-4F3636216A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19180" yWindow="6220" windowWidth="19180" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>Parameter</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>One of: Simple aim points,Sigma aiming,Probability shift,Image size priority,Keep existing,Freeze tracking</t>
+  </si>
+  <si>
+    <t>loss_model</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>Either "geometry" or "mie"</t>
   </si>
 </sst>
 </file>
@@ -802,10 +811,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -813,9 +821,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1176,16 +1181,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1194,7 +1199,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1208,13 +1213,13 @@
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1225,7 +1230,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>-31.2</v>
       </c>
       <c r="C4" t="s">
@@ -1239,7 +1244,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>136.816667</v>
       </c>
       <c r="C5" t="s">
@@ -1253,7 +1258,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>9.5</v>
       </c>
       <c r="C6" t="s">
@@ -1267,7 +1272,7 @@
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>50</v>
       </c>
       <c r="D7" t="s">
@@ -1278,13 +1283,13 @@
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1298,7 +1303,7 @@
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>90</v>
       </c>
       <c r="C10" t="s">
@@ -1308,17 +1313,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <v>195</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1326,7 +1331,7 @@
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>30.5</v>
       </c>
       <c r="C12" t="s">
@@ -1340,7 +1345,7 @@
       <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>15.8</v>
       </c>
       <c r="C13" t="s">
@@ -1354,7 +1359,7 @@
       <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>105</v>
       </c>
       <c r="C14" t="s">
@@ -1368,7 +1373,7 @@
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.35</v>
       </c>
       <c r="C15" t="s">
@@ -1382,7 +1387,7 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>210</v>
       </c>
       <c r="C16" t="s">
@@ -1396,7 +1401,7 @@
       <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1000</v>
       </c>
       <c r="C17" t="s">
@@ -1410,7 +1415,7 @@
       <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C18" t="s">
@@ -1424,13 +1429,13 @@
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>11.3</v>
       </c>
       <c r="C20" t="s">
@@ -1444,7 +1449,7 @@
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>10.4</v>
       </c>
       <c r="C21" t="s">
@@ -1458,7 +1463,7 @@
       <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>0.95</v>
       </c>
       <c r="C22" t="s">
@@ -1472,7 +1477,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>6.5000000000000003E-20</v>
       </c>
       <c r="C23" t="s">
@@ -1486,7 +1491,7 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0.27</v>
       </c>
       <c r="D24" t="s">
@@ -1497,7 +1502,7 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>80100000000</v>
       </c>
       <c r="C25" t="s">
@@ -1511,13 +1516,13 @@
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1.2047000000000001</v>
       </c>
       <c r="C27" t="s">
@@ -1531,7 +1536,7 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1.8170000000000001E-5</v>
       </c>
       <c r="C28" t="s">
@@ -1545,7 +1550,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>6.5E-8</v>
       </c>
       <c r="C29" t="s">
@@ -1559,7 +1564,7 @@
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1367.7</v>
       </c>
       <c r="C30" t="s">
@@ -1573,7 +1578,7 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D31" t="s">
@@ -1584,7 +1589,7 @@
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>1.3809999999999999E-23</v>
       </c>
       <c r="C32" t="s">
@@ -1598,7 +1603,7 @@
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>0.4</v>
       </c>
       <c r="D33" t="s">
@@ -1609,7 +1614,7 @@
       <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1000</v>
       </c>
       <c r="D34" t="s">
@@ -1620,7 +1625,7 @@
       <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D35" t="s">
@@ -1631,7 +1636,7 @@
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
@@ -1642,7 +1647,7 @@
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>400</v>
       </c>
       <c r="D37" t="s">
@@ -1653,7 +1658,7 @@
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -1664,7 +1669,7 @@
       <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>3</v>
       </c>
       <c r="D39" t="s">
@@ -1675,7 +1680,7 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C40" t="s">
@@ -1683,6 +1688,17 @@
       </c>
       <c r="D40" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
